--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rddc7652c7f8b455c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R4b8bf22845bf4246"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R827f050b580e429c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R6772ef69b9ad4ef2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4ff22ad6b1694fcd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R39b6ca41bc5146b6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -233,6 +233,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4896b9b1e3194d3a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R12039405bca54e60"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R827f050b580e429c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R6772ef69b9ad4ef2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R98e6db1e49424ddf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Rc7043341534943fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R39b6ca41bc5146b6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4acb485d18ce499e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -233,6 +233,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R12039405bca54e60"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R00cda522cabe4ae4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R98e6db1e49424ddf"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Rc7043341534943fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raa5ff608200943cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R7f1ce19da06f49fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4acb485d18ce499e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R507ca309b8b74ec6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -233,6 +233,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R00cda522cabe4ae4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R58a8f040c8c347ba"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raa5ff608200943cc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R7f1ce19da06f49fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rf087ac6c41614b5b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R6dada59390684914"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R507ca309b8b74ec6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4b8bd2cf04445f2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -233,6 +233,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R58a8f040c8c347ba"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R657d3067d0534b73"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rf087ac6c41614b5b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R6dada59390684914"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R562ba057c72b4ba8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R276e3a1a666c4806"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4b8bd2cf04445f2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61aae00941c0464e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -233,6 +233,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R657d3067d0534b73"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re41e905e7fda407f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/82_ChartSeriesNamesImport_CSV.xlsx
@@ -5,8 +5,8 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R562ba057c72b4ba8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="R276e3a1a666c4806"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R23653bc38c044afe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Chart" sheetId="2" r:id="Rd74d7a63af904987"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -117,6 +117,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
@@ -154,7 +162,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R61aae00941c0464e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ce76efac38a4af2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -233,6 +241,6 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re41e905e7fda407f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R27c1b9697fbe4bd5"/>
 </x:worksheet>
 </file>